--- a/data/logindata.xlsx
+++ b/data/logindata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -44,15 +44,6 @@
   <si>
     <t>state': 'success'</t>
   </si>
-  <si>
-    <t>{"username": "admin1","password": "Abc@123789","redirect": "http://192.168.3.151:8774/index.htm"}</t>
-  </si>
-  <si>
-    <t>{"username": "admin","password": "Abc@1237819","redirect": "http://192.168.3.151:8774/index.htm"}</t>
-  </si>
-  <si>
-    <t>{"username": "","password": "Abc@123789","redirect": "http://192.168.3.151:8774/index.htm"}</t>
-  </si>
 </sst>
 </file>
 
@@ -82,14 +73,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -97,36 +112,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,9 +132,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,28 +187,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -201,17 +201,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -226,31 +217,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,150 +398,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,45 +408,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,11 +452,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +467,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +516,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,16 +528,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,115 +546,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1028,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="2" max="2" width="39.375" customWidth="1"/>
     <col min="3" max="3" width="61.875" customWidth="1"/>
@@ -1076,63 +1067,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="27" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" ht="27" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="http://192.168.2.239:8770/login.json"/>
-    <hyperlink ref="B3" r:id="rId1" display="http://192.168.2.239:8770/login.json"/>
-    <hyperlink ref="B4" r:id="rId1" display="http://192.168.2.239:8770/login.json"/>
-    <hyperlink ref="B5" r:id="rId1" display="http://192.168.2.239:8770/login.json"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
